--- a/CAN/BUSLOAD.xlsx
+++ b/CAN/BUSLOAD.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe-PC\Desktop\EK304\Firmwares\FormulaUTFPR_CAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe-PC\Desktop\Formula\EK305\CAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56519858-274C-4691-A214-181534443405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC5C63C-B6BB-4650-A7DF-BE870DB25BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CanDB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -47,9 +37,6 @@
     <t>Tx Method</t>
   </si>
   <si>
-    <t>Cycle Time</t>
-  </si>
-  <si>
     <t>Transmitter</t>
   </si>
   <si>
@@ -213,6 +200,18 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>LoRa Transm. Máx (Teórico) bytes/sec</t>
+  </si>
+  <si>
+    <t>BUSLOAD (TRANSM.)</t>
+  </si>
+  <si>
+    <t>Real Time?</t>
+  </si>
+  <si>
+    <t>Bytes/s [data, Real Time]</t>
   </si>
 </sst>
 </file>
@@ -355,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +543,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +766,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -778,6 +783,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="35" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1136,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="I24:L26"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,10 +1173,10 @@
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,45 +1193,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
         <v>20</v>
@@ -1229,28 +1251,32 @@
         <f>(ROUNDUP(H2/10,0))*I2</f>
         <v>228</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <f>IF(F2=1,D2*8*H2,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1">
         <v>20</v>
@@ -1267,28 +1293,32 @@
         <f t="shared" ref="K3:K21" si="2">(ROUNDUP(H3/10,0))*I3</f>
         <v>228</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L20" si="3">IF(F3=1,D3*8*H3,)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1">
         <v>20</v>
@@ -1305,28 +1335,32 @@
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1343,28 +1377,32 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
@@ -1381,28 +1419,32 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1">
         <v>20</v>
@@ -1419,542 +1461,602 @@
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1">
         <v>20</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" ref="I8:I15" si="3">66+8*D8</f>
+        <f t="shared" ref="I8:I15" si="4">66+8*D8</f>
         <v>114</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J15" si="4">I8*H8</f>
+        <f t="shared" ref="J8:J15" si="5">I8*H8</f>
         <v>2280</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1">
         <v>20</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2280</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
         <v>228</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1">
         <v>20</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1480</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1">
         <v>20</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1640</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1">
         <v>20</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1480</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1">
         <v>5</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1">
         <v>50</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4100</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="2"/>
         <v>410</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" s="1">
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I16:I19" si="5">66+8*D16</f>
+        <f t="shared" ref="I16:I19" si="6">66+8*D16</f>
         <v>74</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" ref="J16:J19" si="6">I16*H16</f>
+        <f t="shared" ref="J16:J19" si="7">I16*H16</f>
         <v>740</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="1">
         <v>25</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2450</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="2"/>
         <v>294</v>
       </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="1">
         <v>25</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2450</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="2"/>
         <v>294</v>
       </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
+      <c r="L19" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1">
         <v>20</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" ref="I20:I21" si="7">66+8*D20</f>
+        <f t="shared" ref="I20:I21" si="8">66+8*D20</f>
         <v>74</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ref="J20:J21" si="8">I20*H20</f>
+        <f t="shared" ref="J20:J21" si="9">I20*H20</f>
         <v>1480</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
+      <c r="L20" s="1">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1">
         <v>1</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
+      <c r="L21" s="1">
+        <f>IF(F21=1,D21*8*H21,)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="2">
         <f>SUM(J2:J21)</f>
@@ -1964,10 +2066,14 @@
         <f>SUM(K2:K21)</f>
         <v>3492</v>
       </c>
+      <c r="L22" s="11">
+        <f>SUM(L2:L21)</f>
+        <v>1832</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
@@ -1975,7 +2081,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -1986,7 +2092,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="9"/>
@@ -1995,10 +2101,33 @@
         <v>6.9839999999999999E-2</v>
       </c>
     </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="12">
+        <f>L22/L28</f>
+        <v>0.54281481481481486</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
